--- a/ocms/src/test/resources/TestData/SendFaxData.xlsx
+++ b/ocms/src/test/resources/TestData/SendFaxData.xlsx
@@ -8,21 +8,82 @@
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Queries" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>FaxLine</t>
   </si>
   <si>
-    <t>4444</t>
+    <t>RecipientNumber</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>EnableTemp</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>FileUpload</t>
+  </si>
+  <si>
+    <t>test.pdf</t>
+  </si>
+  <si>
+    <t>customhtml</t>
+  </si>
+  <si>
+    <t>Select fileName,GUID from [Product_OCM].[dbo].[FaxScheduler]
+  where Number='4444';</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Wrongdata.txt</t>
+  </si>
+  <si>
+    <t>samplenew.pdf</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>Delete FROM [Product_OCM].[dbo].[FaxScheduler]
+  where FaxLine='22222';
+  Delete FROM [Product_OCM].[dbo].[FaxScheduler]
+  where FaxLine='4000';
+  Delete FROM [Product_OCM].[dbo].[FaxScheduler]
+  where FaxLine='20000';</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>55555</t>
   </si>
 </sst>
 </file>
@@ -58,9 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,22 +426,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -386,6 +554,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -397,7 +598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/ocms/src/test/resources/TestData/SendFaxData.xlsx
+++ b/ocms/src/test/resources/TestData/SendFaxData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L8"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>FaxLine</t>
   </si>
@@ -57,9 +57,6 @@
   where Number='4444';</t>
   </si>
   <si>
-    <t>22222</t>
-  </si>
-  <si>
     <t>20000</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>samplenew.pdf</t>
-  </si>
-  <si>
-    <t>4000</t>
   </si>
   <si>
     <t>Delete FROM [Product_OCM].[dbo].[FaxScheduler]
@@ -84,6 +78,18 @@
   </si>
   <si>
     <t>55555</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>805013440</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>1000121</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,10 +468,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -477,15 +483,15 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -499,10 +505,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -511,15 +517,15 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -533,10 +539,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -578,7 +584,7 @@
     </row>
     <row r="3" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
